--- a/threads.xlsx
+++ b/threads.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mestrado Informatica\06-Prog_Conc_Distribuida\TB_V2\TP_Concorrente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23491722-EFDD-49D2-AF9F-986E3030B27D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E49B44-1869-4138-8310-8AA28A1A736E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC81193F-4DAE-4933-8B80-7EA4468AF4E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{EC81193F-4DAE-4933-8B80-7EA4468AF4E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>MonteCarlo</t>
   </si>
@@ -84,35 +85,48 @@
     <t>Speedup=60,55/18,48</t>
   </si>
   <si>
-    <t>Alfa=7,3%</t>
+    <t>-</t>
   </si>
   <si>
-    <t>S=3,28</t>
+    <t>F</t>
   </si>
   <si>
-    <t>S=3,48</t>
+    <t>Nº Núcleos</t>
   </si>
   <si>
-    <t>Alfa=4,98%</t>
-  </si>
-  <si>
-    <t>sMAX=4</t>
-  </si>
-  <si>
-    <t>sMax=4</t>
-  </si>
-  <si>
-    <t>NªP=4</t>
-  </si>
-  <si>
-    <t>NºP=4</t>
+    <r>
+      <t xml:space="preserve">Erro
+(pi - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>π</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) /  π * 100</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +142,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,17 +178,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,13 +267,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -205,7 +287,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Monte Carlo</a:t>
+              <a:t>Gregory Lebinz</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -223,52 +305,40 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.213648293963254E-2"/>
-          <c:y val="0.17837962962962964"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.60368802857976089"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo(s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>4 Cores</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -309,83 +379,83 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$K$23:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PC20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$J$3:$J$9</c:f>
+              <c:f>Folha1!$J$23:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60.55</c:v>
+                  <c:v>60.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.43</c:v>
+                  <c:v>49.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.47</c:v>
+                  <c:v>29.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.48</c:v>
+                  <c:v>18.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.135000000000002</c:v>
+                  <c:v>18.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.331</c:v>
+                  <c:v>18.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.614000000000001</c:v>
+                  <c:v>17.329999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09CE-42C0-8791-6C4D27E75DBA}"/>
+              <c16:uniqueId val="{00000000-1571-47A7-9C01-2FDEEFE30EA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NºThreads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>12 Cores</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -398,39 +468,68 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$23:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PC20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$K$3:$K$9</c:f>
+              <c:f>Folha1!$O$23:$O$29</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>90.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>37.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.4595649999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.931737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.0071630000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.9244159999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09CE-42C0-8791-6C4D27E75DBA}"/>
+              <c16:uniqueId val="{00000002-0318-43D8-B323-05FB014D1A3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -442,13 +541,153 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="584096472"/>
-        <c:axId val="584097784"/>
+        <c:gapWidth val="100"/>
+        <c:axId val="589626936"/>
+        <c:axId val="589627920"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>F - 4 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$P$23:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>3.0632570659488563</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>3.9810646659521258</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.5140434552199258</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3.482294828304469</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>3.6148753302760657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0318-43D8-B323-05FB014D1A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>F - 12 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$23:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>8.6520342612419707</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>12.373382038885158</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>17.226181880378618</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>19.893563525338045</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>19.217620333585053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0318-43D8-B323-05FB014D1A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="746991504"/>
+        <c:axId val="746987984"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="584096472"/>
+        <c:axId val="589626936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,9 +701,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -478,9 +717,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -488,10 +726,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584097784"/>
+        <c:crossAx val="589627920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,7 +737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584097784"/>
+        <c:axId val="589627920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,9 +747,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -537,9 +775,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -547,13 +784,70 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584096472"/>
+        <c:crossAx val="589626936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="746987984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746991504"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="746991504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="746987984"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -579,9 +873,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -589,7 +882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -598,17 +891,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -619,7 +923,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -651,13 +955,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -665,8 +975,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Gregory Lebinz</a:t>
+              <a:t>Monte</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Carlo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -683,19 +998,25 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -710,15 +1031,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$J$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo(s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>4 Cores</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -759,83 +1072,83 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$K$23:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PC20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$J$20:$J$26</c:f>
+              <c:f>Folha1!$N$7:$N$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>60.38</c:v>
+                  <c:v>60.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.79</c:v>
+                  <c:v>59.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.72</c:v>
+                  <c:v>32.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.66</c:v>
+                  <c:v>18.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.87</c:v>
+                  <c:v>19.135000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>19.331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.329999999999998</c:v>
+                  <c:v>20.614000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1571-47A7-9C01-2FDEEFE30EA5}"/>
+              <c16:uniqueId val="{00000000-D5D7-4A8B-958B-EAF50A264443}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$K$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NºThreads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>12 Cores</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,39 +1161,68 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$23:$M$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PC8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PC10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PC20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$K$20:$K$26</c:f>
+              <c:f>Folha1!$O$7:$O$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>56.167101000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>41.419688999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.816845000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10.453537000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.8672440000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.8116630000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15.736326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1571-47A7-9C01-2FDEEFE30EA5}"/>
+              <c16:uniqueId val="{00000001-D5D7-4A8B-958B-EAF50A264443}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -893,10 +1235,153 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
         <c:axId val="589626936"/>
         <c:axId val="589627920"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>F - 4 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$P$7:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>2.7295965506621496</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>4.0353535353535355</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.4735525775504872</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3.3691939831818778</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>3.0392885775124725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D5D7-4A8B-958B-EAF50A264443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>F - 12 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$7:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>4.3963125536074266</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>6.830698132762782</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>10.797709257897379</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>12.859017927435438</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>3.7044883619159763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D5D7-4A8B-958B-EAF50A264443}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="746991504"/>
+        <c:axId val="746987984"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="589626936"/>
         <c:scaling>
@@ -912,9 +1397,9 @@
           <a:noFill/>
           <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -928,9 +1413,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -938,7 +1422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627920"/>
@@ -959,9 +1443,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -969,7 +1453,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -987,9 +1471,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -997,13 +1480,71 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589626936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="746987984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746991504"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="746991504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="746987984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1029,9 +1570,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1039,7 +1579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1048,17 +1588,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1069,7 +1620,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1081,13 +1632,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1121,13 +1669,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1161,35 +1706,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1197,37 +1740,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1246,14 +1796,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1267,7 +1809,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -1277,7 +1819,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1287,7 +1829,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -1307,7 +1849,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -1326,7 +1868,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1342,21 +1884,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1366,20 +1905,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1390,17 +1929,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1409,14 +1948,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1436,14 +1974,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1455,17 +1993,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1474,17 +2011,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1493,17 +2030,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1512,9 +2048,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1540,17 +2075,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1563,14 +2097,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1582,12 +2116,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1611,9 +2152,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1623,7 +2163,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1631,9 +2171,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1644,9 +2184,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1663,35 +2202,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1699,37 +2236,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1748,14 +2292,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1844,21 +2380,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1868,20 +2401,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1892,17 +2425,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1911,14 +2444,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1938,14 +2470,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1957,17 +2489,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1976,17 +2507,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1995,17 +2526,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2014,9 +2544,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2042,17 +2571,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2065,14 +2593,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2084,12 +2612,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2113,9 +2648,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2125,7 +2659,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2133,9 +2667,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2146,9 +2680,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2168,23 +2701,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FDA7C-6B96-4FF6-B2C0-FBBC28E14F8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB5D424-E381-476F-B718-31A7CB4292EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,27 +2737,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB5D424-E381-476F-B718-31A7CB4292EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC38A5C-FBC8-4EA0-858D-78CE4B59C816}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2242,8 +2777,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72AE7047-C280-497B-A972-BCF308C0EC5B}" name="Tabela1" displayName="Tabela1" ref="J2:K9" totalsRowShown="0">
-  <autoFilter ref="J2:K9" xr:uid="{DF887B73-53C3-43FD-B6CD-D8491568E585}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72AE7047-C280-497B-A972-BCF308C0EC5B}" name="Tabela1" displayName="Tabela1" ref="J5:K12" totalsRowShown="0">
+  <autoFilter ref="J5:K12" xr:uid="{DF887B73-53C3-43FD-B6CD-D8491568E585}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B074A2FE-65E7-4016-B20D-D2EFEEF171A8}" name="Tempo(s)"/>
     <tableColumn id="2" xr3:uid="{A4B48730-F66F-4833-84B9-AAEB0E5C72B0}" name="NºThreads"/>
@@ -2253,8 +2788,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62A82CFB-6923-4C76-BF63-70B9EEAFD479}" name="Tabela2" displayName="Tabela2" ref="J19:K26" totalsRowShown="0">
-  <autoFilter ref="J19:K26" xr:uid="{3AB16016-C746-4087-BD33-2E3D2957FC25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62A82CFB-6923-4C76-BF63-70B9EEAFD479}" name="Tabela2" displayName="Tabela2" ref="J22:K29" totalsRowShown="0">
+  <autoFilter ref="J22:K29" xr:uid="{3AB16016-C746-4087-BD33-2E3D2957FC25}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0D8C7489-DFAF-4D78-9922-31322CBE425D}" name="Tempo(s)"/>
     <tableColumn id="2" xr3:uid="{09593DC7-4395-4461-9773-2B4177301292}" name="NºThreads"/>
@@ -2560,258 +3095,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407CD7D-4490-47BD-936C-5BD5C7C6DB13}">
-  <dimension ref="J1:AB37"/>
+  <dimension ref="J1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="M1" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2">
+      <c r="P2" s="4">
         <v>1100000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="4">
         <v>16000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J3">
-        <v>60.55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J4">
-        <v>59.43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
-      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J5">
-        <v>32.47</v>
+      <c r="J5" t="s">
+        <v>9</v>
       </c>
       <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
         <v>4</v>
       </c>
-      <c r="X5" t="s">
-        <v>16</v>
+      <c r="O5" s="5">
+        <v>12</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="10:28" ht="30" x14ac:dyDescent="0.25">
       <c r="J6">
-        <v>18.48</v>
+        <v>60.55</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J7">
-        <v>19.135000000000002</v>
+        <v>59.43</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>60.55</v>
+      </c>
+      <c r="O7" s="6">
+        <v>56.167101000000002</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="12">
+        <v>2.5976705890087899E-3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J8">
-        <v>19.331</v>
+        <v>32.47</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>59.43</v>
+      </c>
+      <c r="O8" s="6">
+        <v>41.419688999999998</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="12">
+        <v>-1.1816516269195301E-3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J9">
-        <v>20.614000000000001</v>
+        <v>18.48</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>32.47</v>
+      </c>
+      <c r="O9" s="6">
+        <v>20.816845000000001</v>
+      </c>
+      <c r="P9" s="8">
+        <f>(L9-(N9/$N$7))/((N9/$N$7)*(L9-1))</f>
+        <v>2.7295965506621496</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>(L9-(O9/$O$7))/((O9/$O$7)*(L9-1))</f>
+        <v>4.3963125536074266</v>
+      </c>
+      <c r="R9" s="12">
+        <f>5.6222355316791*10^-4</f>
+        <v>5.6222355316790996E-4</v>
+      </c>
+      <c r="V9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>19.135000000000002</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>18.48</v>
+      </c>
+      <c r="O10" s="6">
+        <v>10.453537000000001</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" ref="P10:P13" si="0">(L10-(N10/$N$7))/((N10/$N$7)*(L10-1))</f>
+        <v>4.0353535353535355</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" ref="Q10:Q13" si="1">(L10-(O10/$O$7))/((O10/$O$7)*(L10-1))</f>
+        <v>6.830698132762782</v>
+      </c>
+      <c r="R10" s="12">
+        <f>3.87673986489021*10^-4</f>
+        <v>3.87673986489021E-4</v>
       </c>
     </row>
     <row r="11" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>18</v>
+      <c r="J11">
+        <v>19.331</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" t="s">
-        <v>3</v>
-      </c>
-      <c r="W11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>8</v>
+      <c r="N11" s="6">
+        <v>19.135000000000002</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5.8672440000000003</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.4735525775504872</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="1"/>
+        <v>10.797709257897379</v>
+      </c>
+      <c r="R11" s="12">
+        <f>-0.00143838301874747</f>
+        <v>-1.43838301874747E-3</v>
       </c>
     </row>
     <row r="12" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
-        <v>17</v>
+      <c r="J12">
+        <v>20.614000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
-      </c>
-      <c r="V12">
-        <v>60.51</v>
-      </c>
-      <c r="W12">
-        <v>59.43</v>
-      </c>
-      <c r="X12">
-        <v>33.06</v>
-      </c>
-      <c r="Y12">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="Z12">
-        <v>21.46</v>
-      </c>
-      <c r="AA12">
-        <v>21.99</v>
-      </c>
-      <c r="AB12">
-        <v>18.309999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="6">
+        <v>19.331</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4.8116630000000002</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3691939831818778</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="1"/>
+        <v>12.859017927435438</v>
+      </c>
+      <c r="R12" s="12">
+        <f>-2.77651550152778*10^-4</f>
+        <v>-2.77651550152778E-4</v>
       </c>
     </row>
     <row r="13" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="V13">
-        <v>60.65</v>
-      </c>
-      <c r="W13">
-        <v>59.43</v>
-      </c>
-      <c r="X13">
-        <v>33.17</v>
-      </c>
-      <c r="Y13">
-        <v>17.88</v>
-      </c>
-      <c r="Z13">
-        <v>22.56</v>
-      </c>
-      <c r="AA13">
-        <v>18.14</v>
-      </c>
-      <c r="AB13">
-        <v>18.86</v>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
+        <v>20.614000000000001</v>
+      </c>
+      <c r="O13" s="6">
+        <v>15.736326</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.0392885775124725</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>3.7044883619159763</v>
+      </c>
+      <c r="R13" s="12">
+        <f>1.65320062357906*10^-4</f>
+        <v>1.65320062357906E-4</v>
       </c>
     </row>
     <row r="14" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="V14">
-        <v>60.51</v>
-      </c>
-      <c r="W14">
-        <v>59.43</v>
-      </c>
-      <c r="X14">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="Y14">
-        <v>19.14</v>
-      </c>
-      <c r="Z14">
-        <v>20.05</v>
-      </c>
-      <c r="AA14">
-        <v>21.52</v>
-      </c>
-      <c r="AB14">
-        <v>18.100000000000001</v>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="10:28" x14ac:dyDescent="0.25">
       <c r="V15">
-        <v>60.52</v>
+        <v>60.51</v>
       </c>
       <c r="W15">
         <v>59.43</v>
       </c>
       <c r="X15">
-        <v>32.159999999999997</v>
+        <v>33.06</v>
       </c>
       <c r="Y15">
-        <v>18.149999999999999</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="Z15">
-        <v>17.89</v>
+        <v>21.46</v>
       </c>
       <c r="AA15">
-        <v>20.329999999999998</v>
+        <v>21.99</v>
       </c>
       <c r="AB15">
-        <v>17.98</v>
+        <v>18.309999999999999</v>
       </c>
     </row>
     <row r="16" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="T16" t="s">
-        <v>0</v>
-      </c>
       <c r="V16">
-        <v>60.59</v>
+        <v>60.65</v>
       </c>
       <c r="W16">
         <v>59.43</v>
       </c>
       <c r="X16">
-        <v>33.21</v>
+        <v>33.17</v>
       </c>
       <c r="Y16">
-        <v>17.84</v>
+        <v>17.88</v>
       </c>
       <c r="Z16">
-        <v>18.07</v>
+        <v>22.56</v>
       </c>
       <c r="AA16">
-        <v>17.850000000000001</v>
+        <v>18.14</v>
       </c>
       <c r="AB16">
-        <v>18.170000000000002</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="17" spans="10:28" x14ac:dyDescent="0.25">
@@ -2822,496 +3477,788 @@
         <v>59.43</v>
       </c>
       <c r="X17">
-        <v>32.14</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y17">
-        <v>19.3</v>
+        <v>19.14</v>
       </c>
       <c r="Z17">
-        <v>18.46</v>
+        <v>20.05</v>
       </c>
       <c r="AA17">
-        <v>18.440000000000001</v>
+        <v>21.52</v>
       </c>
       <c r="AB17">
-        <v>18.12</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="18" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="V18" s="1">
-        <v>60.4</v>
+      <c r="V18">
+        <v>60.52</v>
       </c>
       <c r="W18">
         <v>59.43</v>
       </c>
       <c r="X18">
-        <v>32.4</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="Y18">
-        <v>19.3</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="Z18">
-        <v>18.32</v>
+        <v>17.89</v>
       </c>
       <c r="AA18">
-        <v>17.95</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="AB18">
-        <v>20.6</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="19" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
+      <c r="T19" t="s">
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>60.44</v>
+        <v>60.59</v>
       </c>
       <c r="W19">
         <v>59.43</v>
       </c>
       <c r="X19">
-        <v>32</v>
+        <v>33.21</v>
       </c>
       <c r="Y19">
-        <v>19.04</v>
+        <v>17.84</v>
       </c>
       <c r="Z19">
-        <v>18</v>
+        <v>18.07</v>
       </c>
       <c r="AA19">
-        <v>18</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="AB19">
-        <v>18</v>
+        <v>18.170000000000002</v>
       </c>
     </row>
     <row r="20" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J20">
-        <v>60.38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1</v>
-      </c>
+      <c r="N20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7"/>
       <c r="V20">
-        <v>61.01</v>
+        <v>60.51</v>
       </c>
       <c r="W20">
         <v>59.43</v>
       </c>
       <c r="X20">
-        <v>32.17</v>
+        <v>32.14</v>
       </c>
       <c r="Y20">
-        <v>17.920000000000002</v>
+        <v>19.3</v>
       </c>
       <c r="Z20">
-        <v>18.14</v>
+        <v>18.46</v>
       </c>
       <c r="AA20">
-        <v>18.02</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="AB20">
-        <v>40</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="21" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J21">
-        <v>49.79</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21">
+      <c r="N21" s="5">
+        <v>4</v>
+      </c>
+      <c r="O21" s="5">
+        <v>12</v>
+      </c>
+      <c r="P21" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>12</v>
+      </c>
+      <c r="V21" s="1">
         <v>60.4</v>
       </c>
       <c r="W21">
         <v>59.43</v>
       </c>
       <c r="X21">
-        <v>32.119999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="Y21">
-        <v>17.82</v>
+        <v>19.3</v>
       </c>
       <c r="Z21">
-        <v>18.399999999999999</v>
+        <v>18.32</v>
       </c>
       <c r="AA21">
-        <v>21.07</v>
+        <v>17.95</v>
       </c>
       <c r="AB21">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="22" spans="10:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J22">
-        <v>29.72</v>
-      </c>
-      <c r="K22" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="1">
-        <f>AVERAGE(V12:V21)</f>
-        <v>60.553999999999995</v>
-      </c>
-      <c r="W22" s="1">
-        <f>AVERAGE(W12:W21)</f>
-        <v>59.429999999999993</v>
-      </c>
-      <c r="X22" s="1">
-        <f>AVERAGE(X12:X21)</f>
-        <v>32.473000000000006</v>
-      </c>
-      <c r="Y22" s="1">
-        <f>AVERAGE(Y12:Y21)</f>
-        <v>18.481000000000002</v>
-      </c>
-      <c r="Z22" s="1">
-        <f>AVERAGE(Z12:Z21)</f>
-        <v>19.134999999999998</v>
-      </c>
-      <c r="AA22" s="1">
-        <f>AVERAGE(AA12:AA21)</f>
-        <v>19.330999999999996</v>
-      </c>
-      <c r="AB22" s="2">
-        <f>AVERAGE(AB12:AB21)</f>
-        <v>20.614000000000001</v>
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>60.44</v>
+      </c>
+      <c r="W22">
+        <v>59.43</v>
+      </c>
+      <c r="X22">
+        <v>32</v>
+      </c>
+      <c r="Y22">
+        <v>19.04</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>18</v>
+      </c>
+      <c r="AB22">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J23">
-        <v>18.66</v>
+        <v>60.38</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>60.38</v>
+      </c>
+      <c r="O23" s="6">
+        <v>90.15</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="10">
+        <f>-2.03610629228143*10^-9</f>
+        <v>-2.03610629228143E-9</v>
+      </c>
+      <c r="V23">
+        <v>61.01</v>
+      </c>
+      <c r="W23">
+        <v>59.43</v>
+      </c>
+      <c r="X23">
+        <v>32.17</v>
+      </c>
+      <c r="Y23">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="Z23">
+        <v>18.14</v>
+      </c>
+      <c r="AA23">
+        <v>18.02</v>
+      </c>
+      <c r="AB23">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J24">
-        <v>18.87</v>
+        <v>49.79</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>49.79</v>
+      </c>
+      <c r="O24" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="10">
+        <f>-2.03610629228143*10^-9</f>
+        <v>-2.03610629228143E-9</v>
+      </c>
+      <c r="V24">
+        <v>60.4</v>
+      </c>
+      <c r="W24">
+        <v>59.43</v>
+      </c>
+      <c r="X24">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="Y24">
+        <v>17.82</v>
+      </c>
+      <c r="Z24">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>21.07</v>
+      </c>
+      <c r="AB24">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J25">
-        <v>18.670000000000002</v>
+        <v>29.72</v>
       </c>
       <c r="K25" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="4">
+        <v>29.72</v>
+      </c>
+      <c r="O25" s="6">
+        <v>18.68</v>
+      </c>
+      <c r="P25" s="8">
+        <f>(L25-(N25/$N$23))/((N25/$N$23)*(L25-1))</f>
+        <v>3.0632570659488563</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>(L25-(O25/$O$23))/((O25/$O$23)*(L25-1))</f>
+        <v>8.6520342612419707</v>
+      </c>
+      <c r="R25" s="10">
+        <f>-2.03825493366624*10^-9</f>
+        <v>-2.0382549336662402E-9</v>
+      </c>
+      <c r="V25" s="1">
+        <f>AVERAGE(V15:V24)</f>
+        <v>60.553999999999995</v>
+      </c>
+      <c r="W25" s="1">
+        <f>AVERAGE(W15:W24)</f>
+        <v>59.429999999999993</v>
+      </c>
+      <c r="X25" s="1">
+        <f>AVERAGE(X15:X24)</f>
+        <v>32.473000000000006</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>AVERAGE(Y15:Y24)</f>
+        <v>18.481000000000002</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>AVERAGE(Z15:Z24)</f>
+        <v>19.134999999999998</v>
+      </c>
+      <c r="AA25" s="1">
+        <f>AVERAGE(AA15:AA24)</f>
+        <v>19.330999999999996</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>AVERAGE(AB15:AB24)</f>
+        <v>20.614000000000001</v>
       </c>
     </row>
     <row r="26" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J26">
-        <v>17.329999999999998</v>
+        <v>18.66</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" t="s">
-        <v>2</v>
-      </c>
-      <c r="X26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="M26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>8</v>
+      <c r="N26" s="4">
+        <v>18.66</v>
+      </c>
+      <c r="O26" s="6">
+        <v>9.4595649999999996</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26:P29" si="2">(L26-(N26/$N$23))/((N26/$N$23)*(L26-1))</f>
+        <v>3.9810646659521258</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" ref="Q26:Q29" si="3">(L26-(O26/$O$23))/((O26/$O$23)*(L26-1))</f>
+        <v>12.373382038885158</v>
+      </c>
+      <c r="R26" s="10">
+        <f>-2.04844684444551*10^-9</f>
+        <v>-2.0484468444455104E-9</v>
       </c>
     </row>
     <row r="27" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="V27">
-        <v>60.23</v>
-      </c>
-      <c r="W27">
-        <v>50.24</v>
-      </c>
-      <c r="X27">
-        <v>29.67</v>
-      </c>
-      <c r="Y27">
-        <v>19.22</v>
-      </c>
-      <c r="Z27">
-        <v>19.88</v>
-      </c>
-      <c r="AA27">
-        <v>18.53</v>
-      </c>
-      <c r="AB27">
-        <v>17.28</v>
+      <c r="J27">
+        <v>18.87</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="4">
+        <v>18.87</v>
+      </c>
+      <c r="O27" s="6">
+        <v>5.931737</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="2"/>
+        <v>3.5140434552199258</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="3"/>
+        <v>17.226181880378618</v>
+      </c>
+      <c r="R27" s="10">
+        <f>-2.04407888268297*10^-9</f>
+        <v>-2.04407888268297E-9</v>
       </c>
     </row>
     <row r="28" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="V28">
-        <v>60.7</v>
-      </c>
-      <c r="W28">
-        <v>51.34</v>
-      </c>
-      <c r="X28">
-        <v>29.35</v>
-      </c>
-      <c r="Y28">
-        <v>18.55</v>
-      </c>
-      <c r="Z28">
-        <v>18.73</v>
-      </c>
-      <c r="AA28">
-        <v>18.46</v>
-      </c>
-      <c r="AB28">
-        <v>17.18</v>
+      <c r="J28">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="4">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="O28" s="6">
+        <v>5.0071630000000003</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="2"/>
+        <v>3.482294828304469</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="3"/>
+        <v>19.893563525338045</v>
+      </c>
+      <c r="R28" s="10">
+        <f>-2.04559141313149*10^-9</f>
+        <v>-2.0455914131314899E-9</v>
       </c>
     </row>
     <row r="29" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
-        <v>19</v>
+      <c r="J29">
+        <v>17.329999999999998</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="V29">
-        <v>60.4</v>
-      </c>
-      <c r="W29">
-        <v>49.53</v>
-      </c>
-      <c r="X29">
-        <v>30.83</v>
-      </c>
-      <c r="Y29">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="Z29">
-        <v>19.28</v>
-      </c>
-      <c r="AA29">
-        <v>19.12</v>
-      </c>
-      <c r="AB29">
-        <v>17.27</v>
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="O29" s="6">
+        <v>4.9244159999999999</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" si="2"/>
+        <v>3.6148753302760657</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="3"/>
+        <v>19.217620333585053</v>
+      </c>
+      <c r="R29" s="10">
+        <f>-2.03689789700215*10^-9</f>
+        <v>-2.0368978970021502E-9</v>
+      </c>
+      <c r="V29" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" t="s">
-        <v>11</v>
-      </c>
+      <c r="R30" s="11"/>
       <c r="V30">
-        <v>60.18</v>
+        <v>60.23</v>
       </c>
       <c r="W30">
-        <v>49.67</v>
+        <v>50.24</v>
       </c>
       <c r="X30">
-        <v>29.42</v>
+        <v>29.67</v>
       </c>
       <c r="Y30">
-        <v>18.66</v>
+        <v>19.22</v>
       </c>
       <c r="Z30">
-        <v>18.72</v>
+        <v>19.88</v>
       </c>
       <c r="AA30">
-        <v>18.399999999999999</v>
+        <v>18.53</v>
       </c>
       <c r="AB30">
-        <v>17.32</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="31" spans="10:28" x14ac:dyDescent="0.25">
       <c r="V31">
-        <v>60.25</v>
+        <v>60.7</v>
       </c>
       <c r="W31">
-        <v>49.37</v>
+        <v>51.34</v>
       </c>
       <c r="X31">
-        <v>29.45</v>
+        <v>29.35</v>
       </c>
       <c r="Y31">
-        <v>18.510000000000002</v>
+        <v>18.55</v>
       </c>
       <c r="Z31">
-        <v>18.440000000000001</v>
+        <v>18.73</v>
       </c>
       <c r="AA31">
-        <v>19.329999999999998</v>
+        <v>18.46</v>
       </c>
       <c r="AB31">
-        <v>17.45</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="32" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="O32" s="3"/>
       <c r="V32">
-        <v>60.46</v>
+        <v>60.4</v>
       </c>
       <c r="W32">
-        <v>50</v>
+        <v>49.53</v>
       </c>
       <c r="X32">
-        <v>29.69</v>
+        <v>30.83</v>
       </c>
       <c r="Y32">
-        <v>18.36</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="Z32">
-        <v>18.46</v>
+        <v>19.28</v>
       </c>
       <c r="AA32">
+        <v>19.12</v>
+      </c>
+      <c r="AB32">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="33" spans="20:28" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>11</v>
+      </c>
+      <c r="V33">
+        <v>60.18</v>
+      </c>
+      <c r="W33">
+        <v>49.67</v>
+      </c>
+      <c r="X33">
+        <v>29.42</v>
+      </c>
+      <c r="Y33">
+        <v>18.66</v>
+      </c>
+      <c r="Z33">
+        <v>18.72</v>
+      </c>
+      <c r="AA33">
         <v>18.399999999999999</v>
-      </c>
-      <c r="AB32">
-        <v>17.45</v>
-      </c>
-    </row>
-    <row r="33" spans="22:28" x14ac:dyDescent="0.25">
-      <c r="V33">
-        <v>60.31</v>
-      </c>
-      <c r="W33">
-        <v>49.2</v>
-      </c>
-      <c r="X33">
-        <v>29.53</v>
-      </c>
-      <c r="Y33">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="Z33">
-        <v>18.66</v>
-      </c>
-      <c r="AA33">
-        <v>18.41</v>
       </c>
       <c r="AB33">
         <v>17.32</v>
       </c>
     </row>
-    <row r="34" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="20:28" x14ac:dyDescent="0.25">
       <c r="V34">
-        <v>60.52</v>
+        <v>60.25</v>
       </c>
       <c r="W34">
-        <v>49.16</v>
+        <v>49.37</v>
       </c>
       <c r="X34">
-        <v>30.57</v>
+        <v>29.45</v>
       </c>
       <c r="Y34">
-        <v>18.760000000000002</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="Z34">
-        <v>18.64</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="AA34">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="AB34">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="35" spans="20:28" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>60.46</v>
+      </c>
+      <c r="W35">
+        <v>50</v>
+      </c>
+      <c r="X35">
+        <v>29.69</v>
+      </c>
+      <c r="Y35">
+        <v>18.36</v>
+      </c>
+      <c r="Z35">
         <v>18.46</v>
       </c>
-      <c r="AB34">
-        <v>17.54</v>
+      <c r="AA35">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AB35">
+        <v>17.45</v>
       </c>
     </row>
-    <row r="35" spans="22:28" x14ac:dyDescent="0.25">
-      <c r="V35">
-        <v>60.33</v>
-      </c>
-      <c r="W35">
-        <v>49.46</v>
-      </c>
-      <c r="X35">
-        <v>28.94</v>
-      </c>
-      <c r="Y35">
-        <v>18.64</v>
-      </c>
-      <c r="Z35">
-        <v>18.8</v>
-      </c>
-      <c r="AA35">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AB35">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="36" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="20:28" x14ac:dyDescent="0.25">
       <c r="V36">
-        <v>60.4</v>
+        <v>60.31</v>
       </c>
       <c r="W36">
-        <v>49.95</v>
+        <v>49.2</v>
       </c>
       <c r="X36">
-        <v>29.8</v>
+        <v>29.53</v>
       </c>
       <c r="Y36">
-        <v>19.04</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="Z36">
-        <v>19.04</v>
+        <v>18.66</v>
       </c>
       <c r="AA36">
-        <v>19</v>
+        <v>18.41</v>
       </c>
       <c r="AB36">
         <v>17.32</v>
       </c>
     </row>
-    <row r="37" spans="22:28" x14ac:dyDescent="0.25">
-      <c r="V37" s="1">
-        <f>AVERAGE(V27:V36)</f>
+    <row r="37" spans="20:28" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>60.52</v>
+      </c>
+      <c r="W37">
+        <v>49.16</v>
+      </c>
+      <c r="X37">
+        <v>30.57</v>
+      </c>
+      <c r="Y37">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="Z37">
+        <v>18.64</v>
+      </c>
+      <c r="AA37">
+        <v>18.46</v>
+      </c>
+      <c r="AB37">
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="38" spans="20:28" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>60.33</v>
+      </c>
+      <c r="W38">
+        <v>49.46</v>
+      </c>
+      <c r="X38">
+        <v>28.94</v>
+      </c>
+      <c r="Y38">
+        <v>18.64</v>
+      </c>
+      <c r="Z38">
+        <v>18.8</v>
+      </c>
+      <c r="AA38">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AB38">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="39" spans="20:28" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>60.4</v>
+      </c>
+      <c r="W39">
+        <v>49.95</v>
+      </c>
+      <c r="X39">
+        <v>29.8</v>
+      </c>
+      <c r="Y39">
+        <v>19.04</v>
+      </c>
+      <c r="Z39">
+        <v>19.04</v>
+      </c>
+      <c r="AA39">
+        <v>19</v>
+      </c>
+      <c r="AB39">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="40" spans="20:28" x14ac:dyDescent="0.25">
+      <c r="V40" s="1">
+        <f t="shared" ref="V40:AB40" si="4">AVERAGE(V30:V39)</f>
         <v>60.378</v>
       </c>
-      <c r="W37" s="1">
-        <f>AVERAGE(W27:W36)</f>
+      <c r="W40" s="1">
+        <f t="shared" si="4"/>
         <v>49.791999999999994</v>
       </c>
-      <c r="X37" s="1">
-        <f>AVERAGE(X27:X36)</f>
+      <c r="X40" s="1">
+        <f t="shared" si="4"/>
         <v>29.725000000000001</v>
       </c>
-      <c r="Y37" s="1">
-        <f>AVERAGE(Y27:Y36)</f>
+      <c r="Y40" s="1">
+        <f t="shared" si="4"/>
         <v>18.657999999999994</v>
       </c>
-      <c r="Z37" s="1">
-        <f>AVERAGE(Z27:Z36)</f>
+      <c r="Z40" s="1">
+        <f t="shared" si="4"/>
         <v>18.865000000000002</v>
       </c>
-      <c r="AA37" s="1">
-        <f>AVERAGE(AA27:AA36)</f>
+      <c r="AA40" s="1">
+        <f t="shared" si="4"/>
         <v>18.670999999999999</v>
       </c>
-      <c r="AB37" s="1">
-        <f>AVERAGE(AB27:AB36)</f>
+      <c r="AB40" s="1">
+        <f t="shared" si="4"/>
         <v>17.326000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="R23:R29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
